--- a/Nhóm 2 _ Danh sách thành viên.xlsx
+++ b/Nhóm 2 _ Danh sách thành viên.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Phạm Minh Đức</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>0368072316</t>
+  </si>
+  <si>
+    <t>15T1021196</t>
+  </si>
+  <si>
+    <t>thanhtuan24031997.lhp@gmail.com</t>
+  </si>
+  <si>
+    <t>0969635510</t>
   </si>
 </sst>
 </file>
@@ -187,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -210,11 +219,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,29 +249,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +562,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -547,170 +577,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
